--- a/PortCrypto02.xlsx
+++ b/PortCrypto02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA79084-BDC4-40EF-8884-8DC2CA516EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C755D085-D337-40C4-B797-1586023FC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>44608.385673032404</v>
       </c>
       <c r="B26">
@@ -1647,6 +1647,44 @@
         <v>5.3731650266587616</v>
       </c>
       <c r="N26">
+        <v>247.37795710800407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>44608.662379513888</v>
+      </c>
+      <c r="B27">
+        <v>633.76427707249059</v>
+      </c>
+      <c r="C27">
+        <v>223.38862723643297</v>
+      </c>
+      <c r="D27">
+        <v>170.50942548039941</v>
+      </c>
+      <c r="E27">
+        <v>31.046426320317838</v>
+      </c>
+      <c r="F27">
+        <v>0.30671939084466171</v>
+      </c>
+      <c r="G27">
+        <v>93.916288173655246</v>
+      </c>
+      <c r="H27">
+        <v>85.069547936129993</v>
+      </c>
+      <c r="I27">
+        <v>316.45936166240244</v>
+      </c>
+      <c r="L27">
+        <v>39.755225026359554</v>
+      </c>
+      <c r="M27">
+        <v>5.3731650266587616</v>
+      </c>
+      <c r="N27">
         <v>247.37795710800407</v>
       </c>
     </row>
@@ -1660,7 +1698,7 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3252,25 +3290,28 @@
       </c>
     </row>
     <row r="28" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="11">
+        <f>Foglio1!A27</f>
+        <v>44608.662379513888</v>
+      </c>
       <c r="B28" s="31"/>
       <c r="D28" s="19">
         <f>Foglio1!D27</f>
-        <v>0</v>
+        <v>170.50942548039941</v>
       </c>
       <c r="F28" s="21"/>
       <c r="H28" s="19">
         <f>Foglio1!N27</f>
-        <v>0</v>
+        <v>247.37795710800407</v>
       </c>
       <c r="I28" s="21"/>
       <c r="K28" s="19">
         <f>Foglio1!E27</f>
-        <v>0</v>
+        <v>31.046426320317838</v>
       </c>
       <c r="P28" s="19">
         <f>Foglio1!H27</f>
-        <v>0</v>
+        <v>85.069547936129993</v>
       </c>
       <c r="V28" s="19">
         <f>Foglio1!K27</f>
@@ -3287,11 +3328,11 @@
       <c r="AI28" s="19"/>
       <c r="AN28" s="19">
         <f>Foglio1!L27</f>
-        <v>0</v>
+        <v>39.755225026359554</v>
       </c>
       <c r="AR28" s="19">
         <f>Foglio1!M27</f>
-        <v>0</v>
+        <v>5.3731650266587616</v>
       </c>
     </row>
     <row r="29" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/PortCrypto02.xlsx
+++ b/PortCrypto02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C755D085-D337-40C4-B797-1586023FC1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{738102CB-62B6-4785-872E-735A4B568725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="6" r:id="rId1"/>
@@ -735,27 +735,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
-    <col min="10" max="11" width="12.296875" customWidth="1"/>
-    <col min="12" max="12" width="16.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="10" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>44603.959435902776</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>246.44739437442655</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>44603.965493344906</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>246.44739437442655</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>44604.940261377313</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>246.24892578115174</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>44605.629927569447</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>245.98203840425455</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>44606.944312766209</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>246.13130355758489</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>44608.385673032404</v>
       </c>
@@ -1650,8 +1650,8 @@
         <v>247.37795710800407</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>44608.662379513888</v>
       </c>
       <c r="B27">
@@ -1686,6 +1686,38 @@
       </c>
       <c r="N27">
         <v>247.37795710800407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>44627.870744143518</v>
+      </c>
+      <c r="B28">
+        <v>530.8596630157848</v>
+      </c>
+      <c r="C28">
+        <v>148.44154814147817</v>
+      </c>
+      <c r="E28">
+        <v>24.106896033595248</v>
+      </c>
+      <c r="F28">
+        <v>0.35999869122139422</v>
+      </c>
+      <c r="G28">
+        <v>97.8460746642603</v>
+      </c>
+      <c r="H28">
+        <v>53.104118372627397</v>
+      </c>
+      <c r="I28">
+        <v>284.57204021004634</v>
+      </c>
+      <c r="L28">
+        <v>20.432078843767346</v>
+      </c>
+      <c r="M28">
+        <v>1.4633222177202497E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1698,29 +1730,29 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="10.09765625" customWidth="1"/>
+    <col min="6" max="9" width="10.125" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="10" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.09765625" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="10" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="0" hidden="1" customWidth="1"/>
     <col min="27" max="38" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="8.796875" style="10" customWidth="1"/>
+    <col min="40" max="40" width="8.75" style="10" customWidth="1"/>
     <col min="42" max="42" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="8.796875" style="10" customWidth="1"/>
+    <col min="44" max="44" width="8.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="11">
         <f ca="1">OFFSET(A7,0,COUNTA(A7:A27)-1)</f>
         <v>0</v>
@@ -1820,7 +1852,7 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
     </row>
-    <row r="2" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="C2" s="17" t="s">
         <v>51</v>
@@ -1894,7 +1926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="15"/>
       <c r="C3" s="17" t="s">
@@ -2037,7 +2069,7 @@
         <v>353.95213844318812</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
@@ -2145,7 +2177,7 @@
       <c r="AW4" s="20"/>
       <c r="AX4" s="20"/>
     </row>
-    <row r="5" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>67</v>
       </c>
@@ -2258,10 +2290,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>70</v>
       </c>
@@ -2306,7 +2338,7 @@
       <c r="AW7" s="20"/>
       <c r="AX7" s="20"/>
     </row>
-    <row r="8" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
@@ -2340,7 +2372,7 @@
       <c r="AW8" s="20"/>
       <c r="AX8" s="20"/>
     </row>
-    <row r="9" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>73</v>
       </c>
@@ -2404,7 +2436,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
@@ -2463,7 +2495,7 @@
       <c r="AW10" s="20"/>
       <c r="AX10" s="20"/>
     </row>
-    <row r="11" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2611,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +2638,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="19"/>
     </row>
-    <row r="13" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2667,7 @@
       <c r="AH13" s="15"/>
       <c r="AI13" s="19"/>
     </row>
-    <row r="14" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>Foglio1!A13</f>
         <v>23/01/2022</v>
@@ -2701,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>Foglio1!A14</f>
         <v>24/01/2022</v>
@@ -2763,7 +2795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>Foglio1!A15</f>
         <v>31/01/2022</v>
@@ -2815,7 +2847,7 @@
         <v>10.740405681022587</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>Foglio1!A16</f>
         <v>02/02/2022</v>
@@ -2857,7 +2889,7 @@
         <v>11.68009536705989</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>Foglio1!A17</f>
         <v>03/02/2022</v>
@@ -2899,7 +2931,7 @@
         <v>10.022677016147213</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>Foglio1!A18</f>
         <v>04/02/2022</v>
@@ -2941,7 +2973,7 @@
         <v>9.8998196614978884</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>Foglio1!A19</f>
         <v>05/02/2022</v>
@@ -2983,7 +3015,7 @@
         <v>10.694565434798344</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>Foglio1!A20</f>
         <v>11/02/2022</v>
@@ -3025,7 +3057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <f>Foglio1!A21</f>
         <v>44603.959435902776</v>
@@ -3067,7 +3099,7 @@
         <v>6.8446686436344564</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <f>Foglio1!A22</f>
         <v>44603.965493344906</v>
@@ -3109,7 +3141,7 @@
         <v>6.8446686436344564</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f>Foglio1!A23</f>
         <v>44604.940261377313</v>
@@ -3151,7 +3183,7 @@
         <v>4.7695031384103501</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <f>Foglio1!A24</f>
         <v>44605.629927569447</v>
@@ -3199,7 +3231,7 @@
         <v>4.790638676709249</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <f>Foglio1!A25</f>
         <v>44606.944312766209</v>
@@ -3244,7 +3276,7 @@
         <v>4.5639494192609558</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <f>Foglio1!A26</f>
         <v>44608.385673032404</v>
@@ -3289,7 +3321,7 @@
         <v>5.3731650266587616</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <f>Foglio1!A27</f>
         <v>44608.662379513888</v>
@@ -3335,8 +3367,11 @@
         <v>5.3731650266587616</v>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <f>Foglio1!A28</f>
+        <v>44627.870744143518</v>
+      </c>
       <c r="D29" s="19">
         <f>Foglio1!D28</f>
         <v>0</v>
@@ -3349,11 +3384,11 @@
       <c r="I29" s="21"/>
       <c r="K29" s="19">
         <f>Foglio1!E28</f>
-        <v>0</v>
+        <v>24.106896033595248</v>
       </c>
       <c r="P29" s="19">
         <f>Foglio1!H28</f>
-        <v>0</v>
+        <v>53.104118372627397</v>
       </c>
       <c r="V29" s="19">
         <f>Foglio1!K28</f>
@@ -3370,14 +3405,14 @@
       <c r="AI29" s="19"/>
       <c r="AN29" s="19">
         <f>Foglio1!L28</f>
-        <v>0</v>
+        <v>20.432078843767346</v>
       </c>
       <c r="AR29" s="19">
         <f>Foglio1!M28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4633222177202497E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="D30" s="19">
         <f>Foglio1!D29</f>

--- a/PortCrypto02.xlsx
+++ b/PortCrypto02.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738102CB-62B6-4785-872E-735A4B568725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951DE12-05C9-40AB-986E-BFB6782344B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="6" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>TOTAL</t>
   </si>
@@ -75,13 +74,16 @@
     <t>BEEFY OASIS</t>
   </si>
   <si>
-    <t>KALMAR</t>
+    <t>MCC</t>
   </si>
   <si>
     <t>FANTOM</t>
   </si>
   <si>
     <t>BEEFY TOMB</t>
+  </si>
+  <si>
+    <t>SCC</t>
   </si>
   <si>
     <t>AVAX</t>
@@ -316,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +350,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -410,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,6 +444,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -735,27 +746,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="10" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" customWidth="1"/>
+    <col min="11" max="12" width="12.19921875" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -778,10 +789,10 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -796,10 +807,13 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>699.53657262292882</v>
@@ -810,16 +824,17 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>666.97961987278063</v>
@@ -830,16 +845,17 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>721.09335518523369</v>
@@ -850,16 +866,17 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
         <v>731.47725373971593</v>
@@ -870,16 +887,17 @@
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>807.52591752321882</v>
@@ -890,16 +908,17 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>827.02110814498769</v>
@@ -910,16 +929,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>832.52058217003173</v>
@@ -930,16 +950,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>838.45508149419675</v>
@@ -950,16 +971,17 @@
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>791.946241035507</v>
@@ -973,35 +995,34 @@
       <c r="E10" s="4">
         <v>37.68738444469038</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.27817745852655384</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="5">
         <v>133.82247541795269</v>
       </c>
       <c r="H10" s="4">
         <v>119.85108814060212</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5">
         <v>382.04142838178058</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>209.69422601651218</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>107.96930858973997</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>50.991918603776185</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>5.6810464332067481</v>
       </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>746.65254782593297</v>
@@ -1015,35 +1036,34 @@
       <c r="E11" s="4">
         <v>36.168088583617063</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.2677963506366271</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="5">
         <v>126.15725907489737</v>
       </c>
       <c r="H11" s="4">
         <v>113.09524302709889</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4"/>
+      <c r="J11" s="5">
         <v>290.63114513495498</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>123.77580373937963</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>108.34844721201443</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>46.716493559759108</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>4.8670618147338853</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>709.73528087686645</v>
@@ -1057,76 +1077,74 @@
       <c r="E12" s="4">
         <v>34.758873344597575</v>
       </c>
-      <c r="F12" s="4">
-        <v>0.27219648209159975</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5">
         <v>115.67237316079402</v>
       </c>
       <c r="H12" s="4">
         <v>103.33736608774635</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
         <v>269.85355465321948</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>110.7688028729296</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>108.92931572619625</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>40.059224190112637</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>3.7174674713985758</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <f>512 + 140</f>
         <v>652</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>26</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="5">
         <v>91</v>
       </c>
       <c r="H13" s="4">
         <v>82</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
         <v>250</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>97</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>108</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>38</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>4</v>
       </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <f>512 + 140</f>
@@ -1142,35 +1160,34 @@
       <c r="E14" s="4">
         <v>26</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="5">
         <v>91</v>
       </c>
       <c r="H14" s="4">
         <v>82</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
         <v>250</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>97</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>108</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>38</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>8</v>
       </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>688.2668506370461</v>
@@ -1184,35 +1201,34 @@
       <c r="E15" s="4">
         <v>27.491974045061639</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.25427549347010397</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="5">
         <v>84.018293264285859</v>
       </c>
       <c r="H15" s="4">
         <v>75.549528608189661</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
         <v>326.63540600894089</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>8.7986172888281322E-5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>2.6645947243580271E-13</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>44.895590074750366</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>10.740405681022587</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>680.37442802051748</v>
@@ -1226,35 +1242,34 @@
       <c r="E16" s="4">
         <v>28.251388164586928</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.24594988125979786</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="5">
         <v>89.323968858886602</v>
       </c>
       <c r="H16" s="4">
         <v>80.290942344308974</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4"/>
+      <c r="J16" s="5">
         <v>333.90553096188728</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>9.0494155215753991E-5</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>2.7754089024281717E-13</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>49.630359408411792</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>11.68009536705989</v>
       </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>638.55202415951578</v>
@@ -1268,35 +1283,34 @@
       <c r="E17" s="4">
         <v>27.106533132831892</v>
       </c>
-      <c r="F17" s="4">
-        <v>0.24416808559656525</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="5">
         <v>82.021362139132904</v>
       </c>
       <c r="H17" s="4">
         <v>73.668081659605207</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4"/>
+      <c r="J17" s="5">
         <v>325.63896855254012</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>9.1021669652247209E-5</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>2.862004805853101E-13</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>44.428475236473538</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>10.022677016147213</v>
       </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>638.07631847269693</v>
@@ -1310,35 +1324,34 @@
       <c r="E18" s="4">
         <v>28.054047687934073</v>
       </c>
-      <c r="F18" s="4">
-        <v>0.24447066317040247</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="5">
         <v>86.278029844406547</v>
       </c>
       <c r="H18" s="4">
         <v>77.494771699826941</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
         <v>327.10565797704203</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>9.2974649704172252E-5</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>2.809198265871086E-13</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>45.092278489616859</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>9.8998196614978884</v>
       </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4">
         <v>690.09458459832138</v>
@@ -1352,35 +1365,34 @@
       <c r="E19" s="4">
         <v>32.547501591620318</v>
       </c>
-      <c r="F19" s="4">
-        <v>0.24608823795522897</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="5">
         <v>95.699078841052227</v>
       </c>
       <c r="H19" s="4">
         <v>86.248310560091269</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4"/>
+      <c r="J19" s="5">
         <v>334.29394341087459</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>9.3510246406005928E-5</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>2.7364534256943322E-13</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>50.264470896339787</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>10.694565434798344</v>
       </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4">
         <v>638</v>
@@ -1394,35 +1406,34 @@
       <c r="E20" s="4">
         <v>31</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="5">
         <v>97</v>
       </c>
       <c r="H20" s="4">
         <v>87</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4"/>
+      <c r="J20" s="5">
         <v>312</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>44</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>7</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44603.959435902776</v>
       </c>
@@ -1438,29 +1449,26 @@
       <c r="E21">
         <v>31.719211623249883</v>
       </c>
-      <c r="F21">
-        <v>0.26184841240579493</v>
-      </c>
       <c r="G21">
         <v>94.324956736089064</v>
       </c>
       <c r="H21">
         <v>85.896779198778262</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>317.19960005533449</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>43.21771381256103</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>6.8446686436344564</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>246.44739437442655</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44603.965493344906</v>
       </c>
@@ -1476,29 +1484,26 @@
       <c r="E22">
         <v>31.719211623249883</v>
       </c>
-      <c r="F22">
-        <v>0.26184841240579493</v>
-      </c>
       <c r="G22">
         <v>94.287779359906281</v>
       </c>
       <c r="H22">
         <v>85.896779198778262</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>317.17881323053905</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>43.21771381256103</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6.8446686436344564</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>246.44739437442655</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44604.940261377313</v>
       </c>
@@ -1514,29 +1519,26 @@
       <c r="E23">
         <v>30.067229213337058</v>
       </c>
-      <c r="F23">
-        <v>0.26700997553737205</v>
-      </c>
       <c r="G23">
         <v>85.749399484633201</v>
       </c>
       <c r="H23">
         <v>77.2666320966634</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>305.66673043991852</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>33.800560158301977</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4.7695031384103501</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>246.24892578115174</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44605.629927569447</v>
       </c>
@@ -1552,29 +1554,26 @@
       <c r="E24">
         <v>30.362168034527372</v>
       </c>
-      <c r="F24">
-        <v>0.27652747006232992</v>
-      </c>
       <c r="G24">
         <v>87.472058283220747</v>
       </c>
       <c r="H24">
         <v>78.879927791585075</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>305.85536765690654</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>34.211339954901447</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4.790638676709249</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>245.98203840425455</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44606.944312766209</v>
       </c>
@@ -1590,29 +1589,26 @@
       <c r="E25">
         <v>28.547048468327226</v>
       </c>
-      <c r="F25">
-        <v>0.25915084711345149</v>
-      </c>
       <c r="G25">
         <v>84.533877277934934</v>
       </c>
       <c r="H25">
         <v>76.157832548957899</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>305.53312801308209</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>33.434909901221211</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4.5639494192609558</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>246.13130355758489</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44608.385673032404</v>
       </c>
@@ -1628,29 +1624,26 @@
       <c r="E26">
         <v>31.046426320317838</v>
       </c>
-      <c r="F26">
-        <v>0.30671939084466171</v>
-      </c>
       <c r="G26">
         <v>94.161658872496218</v>
       </c>
       <c r="H26">
         <v>85.069547936129993</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>315.62442494732869</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>39.755225026359554</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5.3731650266587616</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>247.37795710800407</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44608.662379513888</v>
       </c>
@@ -1666,30 +1659,27 @@
       <c r="E27">
         <v>31.046426320317838</v>
       </c>
-      <c r="F27">
-        <v>0.30671939084466171</v>
-      </c>
       <c r="G27">
         <v>93.916288173655246</v>
       </c>
       <c r="H27">
         <v>85.069547936129993</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>316.45936166240244</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>39.755225026359554</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.3731650266587616</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>247.37795710800407</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="28" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>44627.870744143518</v>
       </c>
       <c r="B28">
@@ -1701,23 +1691,84 @@
       <c r="E28">
         <v>24.106896033595248</v>
       </c>
-      <c r="F28">
-        <v>0.35999869122139422</v>
-      </c>
       <c r="G28">
         <v>97.8460746642603</v>
       </c>
       <c r="H28">
         <v>53.104118372627397</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>284.57204021004634</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>20.432078843767346</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.4633222177202497E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>44672.399457141204</v>
+      </c>
+      <c r="B29">
+        <v>383.87770482018084</v>
+      </c>
+      <c r="C29">
+        <v>91.938582156779248</v>
+      </c>
+      <c r="E29">
+        <v>22.226107732093109</v>
+      </c>
+      <c r="G29">
+        <v>130.84949223173578</v>
+      </c>
+      <c r="H29">
+        <v>52.358762343941791</v>
+      </c>
+      <c r="J29">
+        <v>161.0896304316658</v>
+      </c>
+      <c r="M29">
+        <v>15.743779274557623</v>
+      </c>
+      <c r="N29">
+        <v>6.5857325504214487E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>44672.416274814816</v>
+      </c>
+      <c r="B30">
+        <v>382.96201931078241</v>
+      </c>
+      <c r="C30">
+        <v>92.064642882011256</v>
+      </c>
+      <c r="E30">
+        <v>22.365335214757451</v>
+      </c>
+      <c r="F30">
+        <v>9.0613324967702482</v>
+      </c>
+      <c r="G30">
+        <v>130.52598625771856</v>
+      </c>
+      <c r="H30">
+        <v>52.487977126472856</v>
+      </c>
+      <c r="I30">
+        <v>63.03318534570414</v>
+      </c>
+      <c r="J30">
+        <v>160.37139017105261</v>
+      </c>
+      <c r="M30">
+        <v>15.86638784163793</v>
+      </c>
+      <c r="N30">
+        <v>6.6396932319253503E-5</v>
       </c>
     </row>
   </sheetData>
@@ -1727,73 +1778,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="10.125" customWidth="1"/>
+    <col min="6" max="9" width="10.09765625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.69921875" style="10" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.09765625" style="10" hidden="1" customWidth="1"/>
     <col min="23" max="26" width="0" hidden="1" customWidth="1"/>
     <col min="27" max="38" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="8.75" style="10" customWidth="1"/>
+    <col min="39" max="39" width="12.5" customWidth="1"/>
+    <col min="40" max="40" width="8.69921875" style="10" customWidth="1"/>
     <col min="42" max="42" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="8.75" style="10" customWidth="1"/>
+    <col min="44" max="46" width="8.69921875" style="10" customWidth="1"/>
+    <col min="48" max="54" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11">
         <f ca="1">OFFSET(A7,0,COUNTA(A7:A27)-1)</f>
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="12"/>
       <c r="F1" s="14"/>
       <c r="G1" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
       <c r="J1" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T1" s="12"/>
       <c r="U1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="13"/>
       <c r="W1" s="12"/>
@@ -1803,7 +1857,7 @@
       <c r="AA1" s="16"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="13"/>
       <c r="AE1" s="14"/>
@@ -1813,861 +1867,893 @@
       <c r="AI1" s="16"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" s="12"/>
       <c r="AM1" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
       <c r="AR1" s="16"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12" t="s">
-        <v>45</v>
+      <c r="AS1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="AU1" s="12"/>
       <c r="AV1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AY1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="12"/>
       <c r="BD1" s="12" t="s">
         <v>50</v>
       </c>
       <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
+      <c r="BF1" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
-    </row>
-    <row r="2" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+    </row>
+    <row r="2" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="C2" s="17" t="s">
-        <v>51</v>
+      <c r="C2" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
-        <v>51</v>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
-        <v>51</v>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
-        <v>51</v>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
-        <v>52</v>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="AD2" s="16"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18" t="s">
         <v>54</v>
       </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="AN2" s="16"/>
-      <c r="AO2" s="17"/>
-      <c r="AQ2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AO2" s="18"/>
+      <c r="AQ2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BI2" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ2" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="17" t="s">
-        <v>59</v>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="I3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="M3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="P3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="R3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="W3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="X3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="AD3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="AE3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="16" t="s">
+      <c r="AF3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="AN3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="AO3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="AP3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AQ3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AX3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AY3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="17" t="s">
+      <c r="BA3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG3" s="20">
+      <c r="BI3" s="21">
         <f>AN5+AD5+V5+P5+D5</f>
         <v>777.62</v>
       </c>
-      <c r="BH3" s="20">
+      <c r="BJ3" s="21">
         <f ca="1">AR4+AI4+AA4+AD4+V4+P4+D4</f>
-        <v>-423.66786155681189</v>
-      </c>
-      <c r="BI3" s="20">
-        <f ca="1">SUM(BG3:BH3)</f>
-        <v>353.95213844318812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-461.62253099619545</v>
+      </c>
+      <c r="BK3" s="21">
+        <f ca="1">SUM(BI3:BJ3)</f>
+        <v>315.99746900380455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19">
+        <v>67</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20">
         <f ca="1">(OFFSET(D7,COUNTA($A7:$A27)-1,0)-D$5)</f>
         <v>-68.11057451960059</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <f>E11-E5</f>
         <v>-3.45</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="20">
         <f ca="1">(OFFSET(H7,COUNTA($A7:$A27)-1,0)-H$5)</f>
         <v>4.3779571080040682</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="19">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="20">
         <f ca="1">(OFFSET(K7,COUNTA($A7:$A27)-1,0)-K$5)</f>
         <v>-47.953573679682165</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="22">
         <f>L11-L5</f>
         <v>-2.66</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="22">
         <f>M11-M5</f>
         <v>-32.44</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="19">
-        <f ca="1">(OFFSET(P7,COUNTA($A7:$A27)-1,0)-P$5)</f>
-        <v>-28.930452063870007</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
+        <f ca="1">(OFFSET(P7,COUNTA($A7:$A31)-1,0)-P$5)</f>
+        <v>-61.512022873527144</v>
+      </c>
+      <c r="Q4" s="22">
         <f>Q11-Q5</f>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="U4" s="22">
+      <c r="R4" s="22"/>
+      <c r="U4" s="23">
         <f ca="1">(OFFSET(U7,0,COUNTA($A7:$A27)-1)-U$5)/U$5</f>
         <v>-1</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="20">
         <f ca="1">(OFFSET(V7,COUNTA($A7:$A27)-1,0)-V$5)</f>
         <v>-104.56</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="22">
         <f>W11-W5</f>
         <v>-3.8614999999999999</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="22">
         <f>X11-X5</f>
         <v>-196.84</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="22">
         <v>0.9</v>
       </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="19">
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="20">
         <f ca="1">(OFFSET(AA7,COUNTA($A7:$A27)-1,0)-AA$5)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="23">
         <f ca="1">(OFFSET(AC7,0,COUNTA($A7:$A27)-1)-AC$5)/AC$5</f>
         <v>-1</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="20">
         <f ca="1">(OFFSET(AD7,COUNTA($A7:$A27)-1,0)-AD$5)</f>
         <v>-227.44</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="22">
         <f>AE11-AE5</f>
         <v>-8.8000000000000007</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="22">
         <f>AF11-AF5</f>
         <v>-209961.3</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="22">
         <v>0.8</v>
       </c>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="19">
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="20">
         <f ca="1">(OFFSET(AI7,COUNTA($A7:$A27)-1,0)-AI$5)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="22">
+      <c r="AM4" s="23">
         <f ca="1">(OFFSET(AM7,0,COUNTA($A7:$A27)-1)-AM$5)/AM$5</f>
         <v>-1</v>
       </c>
-      <c r="AN4" s="19">
-        <f ca="1">(OFFSET(AN7,COUNTA($A7:$A27)-1,0)-AN$5)</f>
-        <v>-53.244774973640446</v>
-      </c>
-      <c r="AO4" s="21"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="19">
-        <f ca="1">(OFFSET(AR7,COUNTA($A7:$A27)-1,0)-AR$5)</f>
-        <v>5.3731650266587616</v>
-      </c>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-    </row>
-    <row r="5" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN4" s="20">
+        <f ca="1">(OFFSET(AN7,COUNTA($A7:$A31)-1,0)-AN$5)</f>
+        <v>-77.13361215836207</v>
+      </c>
+      <c r="AO4" s="22"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="20">
+        <f ca="1">(OFFSET(AR7,COUNTA($A7:$A31)-1,0)-AR$5)</f>
+        <v>6.6396932319253503E-5</v>
+      </c>
+      <c r="AS4" s="20">
+        <f ca="1">(OFFSET(AS7,COUNTA($A7:$A31)-1,0)-AS$5)</f>
+        <v>-90.938667503229752</v>
+      </c>
+      <c r="AT4" s="20">
+        <f ca="1">(OFFSET(AT7,COUNTA($A7:$A31)-1,0)-AT$5)</f>
+        <v>-36.96681465429586</v>
+      </c>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+    </row>
+    <row r="5" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15">
         <f>143.7892+C12-C11</f>
         <v>190.02560000000003</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <f>184+D12-D11</f>
         <v>238.62</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>7</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>1000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <v>1.2E-10</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="20">
         <v>243</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="22">
         <v>0.216</v>
       </c>
       <c r="J5" s="15">
         <v>0.67479999999999996</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="20">
         <v>79</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="22">
         <v>3.6</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="22">
         <v>34</v>
       </c>
       <c r="O5" s="15">
         <v>12.3962</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="20">
         <v>114</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="22">
         <v>1.3</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="22">
         <v>2.64</v>
       </c>
       <c r="U5" s="15">
         <v>52.014000000000003</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="20">
         <v>104.56</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="22">
         <v>5.3</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="22">
         <v>200</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="19"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="20"/>
       <c r="AC5" s="15">
         <v>0.35747800000000002</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="20">
         <v>227.44</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="22">
         <v>12.5</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="22">
         <v>210000</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="19"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="20"/>
       <c r="AM5" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AN5" s="19">
+      <c r="AN5" s="20">
         <v>93</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AO5" s="22">
         <v>40</v>
       </c>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="19"/>
-      <c r="AV5" s="15">
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20">
+        <v>100</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>100</v>
+      </c>
+      <c r="AX5" s="15">
         <v>0.05</v>
       </c>
-      <c r="AW5" s="25">
+      <c r="AY5" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AX5" s="20">
+      <c r="AZ5" s="21">
         <v>100</v>
       </c>
-      <c r="AY5" s="15">
+      <c r="BA5" s="15">
         <v>9.24</v>
       </c>
-      <c r="AZ5" s="21">
+      <c r="BB5" s="22">
         <v>659</v>
       </c>
-      <c r="BG5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH5" s="15" t="s">
+      <c r="BI5" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="15">
         <v>0.67479999999999996</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="20">
         <v>79</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
       <c r="Y7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="19"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-    </row>
-    <row r="8" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+    </row>
+    <row r="8" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="19"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-    </row>
-    <row r="9" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+    </row>
+    <row r="9" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="15">
         <v>142.92439999999999</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>201</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
       <c r="U9" s="15">
         <v>52.014000000000003</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="20">
         <v>104.56</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="19"/>
-      <c r="AV9" s="15">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AX9" s="15">
         <v>0.05</v>
       </c>
-      <c r="AW9" s="25">
+      <c r="AY9" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AX9" s="20">
+      <c r="AZ9" s="21">
         <v>100</v>
       </c>
-      <c r="AY9" s="15">
+      <c r="BA9" s="15">
         <v>9.24</v>
       </c>
-      <c r="AZ9" s="21">
+      <c r="BB9" s="22">
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
       <c r="O10" s="15">
         <v>12.3962</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="20">
         <v>114</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
       <c r="Y10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="20"/>
       <c r="AC10" s="15">
         <v>0.35747800000000002</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="20">
         <v>227.44</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="20"/>
       <c r="AM10" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AN10" s="19">
+      <c r="AN10" s="20">
         <v>93</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="AO10" s="22">
         <v>40</v>
       </c>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="19"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-    </row>
-    <row r="11" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+    </row>
+    <row r="11" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="27">
+      <c r="C11" s="28">
         <v>159.40860000000001</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>210</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="22">
         <v>3.55</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>31.7</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="15">
         <v>0.77300000000000002</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="20">
         <v>38</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="22">
         <v>0.94</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="22">
         <v>1.56</v>
       </c>
       <c r="O11" s="15">
         <v>12.5192</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="20">
         <v>122</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="22">
         <v>1.2</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="22">
         <v>2.34</v>
       </c>
       <c r="U11" s="15">
         <v>53.729500000000002</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="20">
         <v>108.49</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="22">
         <v>1.4384999999999999</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="22">
         <v>3.16</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="30">
         <v>5</v>
       </c>
-      <c r="AA11" s="30">
+      <c r="AA11" s="31">
         <f>Z11*0.17</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC11" s="15">
         <v>0.38572400000000001</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="20">
         <v>240</v>
       </c>
-      <c r="AE11" s="21">
+      <c r="AE11" s="22">
         <v>3.7</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AF11" s="22">
         <v>38.700000000000003</v>
       </c>
-      <c r="AH11" s="29">
+      <c r="AH11" s="30">
         <v>20</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AI11" s="31">
         <f>AH11*0.17</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="AM11" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AN11" s="19">
+      <c r="AN11" s="20">
         <v>60</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="AO11" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AP11" s="21">
+      <c r="AP11" s="22">
         <v>5400</v>
       </c>
-      <c r="AQ11" s="23">
+      <c r="AQ11" s="24">
         <v>6</v>
       </c>
-      <c r="AR11" s="19">
+      <c r="AR11" s="20">
         <f>AQ11*1.3</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="AV11" s="15">
-        <f>AV9*0.02*7+AV9</f>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AX11" s="15">
+        <f>AX9*0.02*7+AX9</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AW11" s="25">
+      <c r="AY11" s="26">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="15">
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="15">
         <v>10.51</v>
       </c>
-      <c r="AZ11" s="21">
+      <c r="BB11" s="22">
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="27">
+        <v>23</v>
+      </c>
+      <c r="C12" s="28">
         <v>205.64500000000001</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>264.62</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <v>2590</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="K12" s="20"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="21"/>
+      <c r="AA12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="22"/>
       <c r="AG12" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" s="15"/>
-      <c r="AI12" s="19"/>
-    </row>
-    <row r="13" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI12" s="20"/>
+    </row>
+    <row r="13" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="19"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
-      <c r="K13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="20"/>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AC13" s="15">
         <v>0.218831</v>
       </c>
-      <c r="AD13" s="19">
-        <f>Foglio1!J12</f>
+      <c r="AD13" s="20">
+        <f>Foglio1!K12</f>
         <v>110.7688028729296</v>
       </c>
-      <c r="AE13" s="21">
+      <c r="AE13" s="22">
         <v>3.8</v>
       </c>
       <c r="AG13" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" s="15"/>
-      <c r="AI13" s="19"/>
-    </row>
-    <row r="14" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI13" s="20"/>
+    </row>
+    <row r="14" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="str">
         <f>Foglio1!A13</f>
         <v>23/01/2022</v>
@@ -2675,65 +2761,67 @@
       <c r="C14" s="15">
         <v>205.64500000000001</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>264.62</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="15">
         <v>0.77300000000000002</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="20">
         <f>Foglio1!E13</f>
         <v>26</v>
       </c>
       <c r="O14" s="15">
         <v>12.5192</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="20">
         <f>Foglio1!H13</f>
         <v>82</v>
       </c>
       <c r="U14" s="15">
         <v>53.729500000000002</v>
       </c>
-      <c r="V14" s="19">
-        <f>Foglio1!K13</f>
+      <c r="V14" s="20">
+        <f>Foglio1!L13</f>
         <v>108</v>
       </c>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="19"/>
+      <c r="AA14" s="20"/>
       <c r="AC14" s="15">
         <v>0.218831</v>
       </c>
-      <c r="AD14" s="19">
-        <f>Foglio1!J13</f>
+      <c r="AD14" s="20">
+        <f>Foglio1!K13</f>
         <v>97</v>
       </c>
-      <c r="AE14" s="21"/>
+      <c r="AE14" s="22"/>
       <c r="AG14" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="19"/>
+      <c r="AI14" s="20"/>
       <c r="AM14" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AN14" s="19">
-        <f>Foglio1!L13</f>
+      <c r="AN14" s="20">
+        <f>Foglio1!M13</f>
         <v>38</v>
       </c>
-      <c r="AQ14" s="23">
+      <c r="AQ14" s="24">
         <v>6</v>
       </c>
-      <c r="AR14" s="19">
-        <f>Foglio1!M13</f>
+      <c r="AR14" s="20">
+        <f>Foglio1!N13</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+    </row>
+    <row r="15" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="str">
         <f>Foglio1!A14</f>
         <v>24/01/2022</v>
@@ -2741,61 +2829,63 @@
       <c r="C15" s="15">
         <v>262.98869999999999</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20">
         <v>253.91</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="22">
         <v>4.5</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="22">
         <v>95</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="15">
         <v>0.77300000000000002</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="20">
         <f>Foglio1!E14</f>
         <v>26</v>
       </c>
       <c r="O15" s="15">
         <v>12.5192</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="20">
         <f>Foglio1!H14</f>
         <v>82</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="20">
+        <f>Foglio1!L14</f>
+        <v>108</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="20"/>
+      <c r="AD15" s="20">
         <f>Foglio1!K14</f>
-        <v>108</v>
-      </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="19"/>
-      <c r="AD15" s="19">
-        <f>Foglio1!J14</f>
         <v>97</v>
       </c>
-      <c r="AE15" s="21"/>
+      <c r="AE15" s="22"/>
       <c r="AH15" s="15"/>
-      <c r="AI15" s="19"/>
+      <c r="AI15" s="20"/>
       <c r="AM15" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AN15" s="19">
-        <f>Foglio1!L14</f>
+      <c r="AN15" s="20">
+        <f>Foglio1!M14</f>
         <v>38</v>
       </c>
-      <c r="AQ15" s="23">
+      <c r="AQ15" s="24">
         <v>12</v>
       </c>
-      <c r="AR15" s="19">
-        <f>Foglio1!M14</f>
+      <c r="AR15" s="20">
+        <f>Foglio1!N14</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:61" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+    </row>
+    <row r="16" spans="1:63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="str">
         <f>Foglio1!A15</f>
         <v>31/01/2022</v>
@@ -2803,692 +2893,782 @@
       <c r="C16" s="15">
         <v>287.49</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <f>Foglio1!D15</f>
         <v>220.53629249849439</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="15">
         <v>0.80800000000000005</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="20">
         <f>Foglio1!E15</f>
         <v>27.491974045061639</v>
       </c>
       <c r="O16" s="15">
         <v>13.08</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="20">
         <f>Foglio1!H15</f>
         <v>75.549528608189661</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="20">
+        <f>Foglio1!L15</f>
+        <v>2.6645947243580271E-13</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="20"/>
+      <c r="AD16" s="20">
         <f>Foglio1!K15</f>
-        <v>2.6645947243580271E-13</v>
-      </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="19"/>
-      <c r="AD16" s="19">
-        <f>Foglio1!J15</f>
         <v>8.7986172888281322E-5</v>
       </c>
-      <c r="AE16" s="21"/>
+      <c r="AE16" s="22"/>
       <c r="AH16" s="15"/>
-      <c r="AI16" s="19"/>
-      <c r="AN16" s="19">
-        <f>Foglio1!L15</f>
+      <c r="AI16" s="20"/>
+      <c r="AN16" s="20">
+        <f>Foglio1!M15</f>
         <v>44.895590074750366</v>
       </c>
-      <c r="AR16" s="19">
-        <f>Foglio1!M15</f>
+      <c r="AR16" s="20">
+        <f>Foglio1!N15</f>
         <v>10.740405681022587</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+    </row>
+    <row r="17" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="str">
         <f>Foglio1!A16</f>
         <v>02/02/2022</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <f>Foglio1!D16</f>
         <v>203.76150995895131</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21"/>
-      <c r="K17" s="19">
+      <c r="F17" s="22"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="22"/>
+      <c r="K17" s="20">
         <f>Foglio1!E16</f>
         <v>28.251388164586928</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="20">
         <f>Foglio1!H16</f>
         <v>80.290942344308974</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="20">
+        <f>Foglio1!L16</f>
+        <v>2.7754089024281717E-13</v>
+      </c>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="20"/>
+      <c r="AD17" s="20">
         <f>Foglio1!K16</f>
-        <v>2.7754089024281717E-13</v>
-      </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="19"/>
-      <c r="AD17" s="19">
-        <f>Foglio1!J16</f>
         <v>9.0494155215753991E-5</v>
       </c>
-      <c r="AE17" s="21"/>
+      <c r="AE17" s="22"/>
       <c r="AH17" s="15"/>
-      <c r="AI17" s="19"/>
-      <c r="AN17" s="19">
-        <f>Foglio1!L16</f>
+      <c r="AI17" s="20"/>
+      <c r="AN17" s="20">
+        <f>Foglio1!M16</f>
         <v>49.630359408411792</v>
       </c>
-      <c r="AR17" s="19">
-        <f>Foglio1!M16</f>
+      <c r="AR17" s="20">
+        <f>Foglio1!N16</f>
         <v>11.68009536705989</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+    </row>
+    <row r="18" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="str">
         <f>Foglio1!A17</f>
         <v>03/02/2022</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="20">
         <f>Foglio1!D17</f>
         <v>180.69548959971621</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="K18" s="19">
+      <c r="F18" s="22"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="K18" s="20">
         <f>Foglio1!E17</f>
         <v>27.106533132831892</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="20">
         <f>Foglio1!H17</f>
         <v>73.668081659605207</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="20">
+        <f>Foglio1!L17</f>
+        <v>2.862004805853101E-13</v>
+      </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="20"/>
+      <c r="AD18" s="20">
         <f>Foglio1!K17</f>
-        <v>2.862004805853101E-13</v>
-      </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="19"/>
-      <c r="AD18" s="19">
-        <f>Foglio1!J17</f>
         <v>9.1021669652247209E-5</v>
       </c>
-      <c r="AE18" s="21"/>
+      <c r="AE18" s="22"/>
       <c r="AH18" s="15"/>
-      <c r="AI18" s="19"/>
-      <c r="AN18" s="19">
-        <f>Foglio1!L17</f>
+      <c r="AI18" s="20"/>
+      <c r="AN18" s="20">
+        <f>Foglio1!M17</f>
         <v>44.428475236473538</v>
       </c>
-      <c r="AR18" s="19">
-        <f>Foglio1!M17</f>
+      <c r="AR18" s="20">
+        <f>Foglio1!N17</f>
         <v>10.022677016147213</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+    </row>
+    <row r="19" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="str">
         <f>Foglio1!A18</f>
         <v>04/02/2022</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <f>Foglio1!D18</f>
         <v>173.36482546336327</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
-      <c r="K19" s="19">
+      <c r="F19" s="22"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
+      <c r="K19" s="20">
         <f>Foglio1!E18</f>
         <v>28.054047687934073</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="20">
         <f>Foglio1!H18</f>
         <v>77.494771699826941</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="20">
+        <f>Foglio1!L18</f>
+        <v>2.809198265871086E-13</v>
+      </c>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="20"/>
+      <c r="AD19" s="20">
         <f>Foglio1!K18</f>
-        <v>2.809198265871086E-13</v>
-      </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="19"/>
-      <c r="AD19" s="19">
-        <f>Foglio1!J18</f>
         <v>9.2974649704172252E-5</v>
       </c>
-      <c r="AE19" s="21"/>
+      <c r="AE19" s="22"/>
       <c r="AH19" s="15"/>
-      <c r="AI19" s="19"/>
-      <c r="AN19" s="19">
-        <f>Foglio1!L18</f>
+      <c r="AI19" s="20"/>
+      <c r="AN19" s="20">
+        <f>Foglio1!M18</f>
         <v>45.092278489616859</v>
       </c>
-      <c r="AR19" s="19">
-        <f>Foglio1!M18</f>
+      <c r="AR19" s="20">
+        <f>Foglio1!N18</f>
         <v>9.8998196614978884</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+    </row>
+    <row r="20" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="str">
         <f>Foglio1!A19</f>
         <v>05/02/2022</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <f>Foglio1!D19</f>
         <v>200.02012026839623</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
-      <c r="K20" s="19">
+      <c r="F20" s="22"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="K20" s="20">
         <f>Foglio1!E19</f>
         <v>32.547501591620318</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="20">
         <f>Foglio1!H19</f>
         <v>86.248310560091269</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="20">
+        <f>Foglio1!L19</f>
+        <v>2.7364534256943322E-13</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="20"/>
+      <c r="AD20" s="20">
         <f>Foglio1!K19</f>
-        <v>2.7364534256943322E-13</v>
-      </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="19"/>
-      <c r="AD20" s="19">
-        <f>Foglio1!J19</f>
         <v>9.3510246406005928E-5</v>
       </c>
-      <c r="AE20" s="21"/>
+      <c r="AE20" s="22"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="19"/>
-      <c r="AN20" s="19">
-        <f>Foglio1!L19</f>
+      <c r="AI20" s="20"/>
+      <c r="AN20" s="20">
+        <f>Foglio1!M19</f>
         <v>50.264470896339787</v>
       </c>
-      <c r="AR20" s="19">
-        <f>Foglio1!M19</f>
+      <c r="AR20" s="20">
+        <f>Foglio1!N19</f>
         <v>10.694565434798344</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+    </row>
+    <row r="21" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
         <f>Foglio1!A20</f>
         <v>11/02/2022</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <f>Foglio1!D20</f>
         <v>173</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="19">
+      <c r="F21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
+      <c r="K21" s="20">
         <f>Foglio1!E20</f>
         <v>31</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="20">
         <f>Foglio1!H20</f>
         <v>87</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="20">
+        <f>Foglio1!L20</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="20"/>
+      <c r="AD21" s="20">
         <f>Foglio1!K20</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="19"/>
-      <c r="AD21" s="19">
-        <f>Foglio1!J20</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="21"/>
+      <c r="AE21" s="22"/>
       <c r="AH21" s="15"/>
-      <c r="AI21" s="19"/>
-      <c r="AN21" s="19">
-        <f>Foglio1!L20</f>
+      <c r="AI21" s="20"/>
+      <c r="AN21" s="20">
+        <f>Foglio1!M20</f>
         <v>44</v>
       </c>
-      <c r="AR21" s="19">
-        <f>Foglio1!M20</f>
+      <c r="AR21" s="20">
+        <f>Foglio1!N20</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+    </row>
+    <row r="22" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f>Foglio1!A21</f>
         <v>44603.959435902776</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <f>Foglio1!D21</f>
         <v>169.23776839767137</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="K22" s="19">
+      <c r="F22" s="22"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
+      <c r="K22" s="20">
         <f>Foglio1!E21</f>
         <v>31.719211623249883</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="20">
         <f>Foglio1!H21</f>
         <v>85.896779198778262</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="20">
+        <f>Foglio1!L21</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="20"/>
+      <c r="AD22" s="20">
         <f>Foglio1!K21</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="19"/>
-      <c r="AD22" s="19">
-        <f>Foglio1!J21</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="21"/>
+      <c r="AE22" s="22"/>
       <c r="AH22" s="15"/>
-      <c r="AI22" s="19"/>
-      <c r="AN22" s="19">
-        <f>Foglio1!L21</f>
+      <c r="AI22" s="20"/>
+      <c r="AN22" s="20">
+        <f>Foglio1!M21</f>
         <v>43.21771381256103</v>
       </c>
-      <c r="AR22" s="19">
-        <f>Foglio1!M21</f>
+      <c r="AR22" s="20">
+        <f>Foglio1!N21</f>
         <v>6.8446686436344564</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+    </row>
+    <row r="23" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f>Foglio1!A22</f>
         <v>44603.965493344906</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <f>Foglio1!D22</f>
         <v>169.23776839767137</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
-      <c r="K23" s="19">
+      <c r="F23" s="22"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
+      <c r="K23" s="20">
         <f>Foglio1!E22</f>
         <v>31.719211623249883</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="20">
         <f>Foglio1!H22</f>
         <v>85.896779198778262</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="20">
+        <f>Foglio1!L22</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="20"/>
+      <c r="AD23" s="20">
         <f>Foglio1!K22</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="19"/>
-      <c r="AD23" s="19">
-        <f>Foglio1!J22</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="21"/>
+      <c r="AE23" s="22"/>
       <c r="AH23" s="15"/>
-      <c r="AI23" s="19"/>
-      <c r="AN23" s="19">
-        <f>Foglio1!L22</f>
+      <c r="AI23" s="20"/>
+      <c r="AN23" s="20">
+        <f>Foglio1!M22</f>
         <v>43.21771381256103</v>
       </c>
-      <c r="AR23" s="19">
-        <f>Foglio1!M22</f>
+      <c r="AR23" s="20">
+        <f>Foglio1!N22</f>
         <v>6.8446686436344564</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+    </row>
+    <row r="24" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f>Foglio1!A23</f>
         <v>44604.940261377313</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="20">
         <f>Foglio1!D23</f>
         <v>160.25652346586361</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="21"/>
-      <c r="K24" s="19">
+      <c r="F24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="22"/>
+      <c r="K24" s="20">
         <f>Foglio1!E23</f>
         <v>30.067229213337058</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="20">
         <f>Foglio1!H23</f>
         <v>77.2666320966634</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="20">
+        <f>Foglio1!L23</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="20"/>
+      <c r="AD24" s="20">
         <f>Foglio1!K23</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="19"/>
-      <c r="AD24" s="19">
-        <f>Foglio1!J23</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="21"/>
+      <c r="AE24" s="22"/>
       <c r="AH24" s="15"/>
-      <c r="AI24" s="19"/>
-      <c r="AN24" s="19">
-        <f>Foglio1!L23</f>
+      <c r="AI24" s="20"/>
+      <c r="AN24" s="20">
+        <f>Foglio1!M23</f>
         <v>33.800560158301977</v>
       </c>
-      <c r="AR24" s="19">
-        <f>Foglio1!M23</f>
+      <c r="AR24" s="20">
+        <f>Foglio1!N23</f>
         <v>4.7695031384103501</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+    </row>
+    <row r="25" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f>Foglio1!A24</f>
         <v>44605.629927569447</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="20">
         <f>Foglio1!D24</f>
         <v>163.99237146490401</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24">
+      <c r="F25" s="22"/>
+      <c r="G25" s="25">
         <v>1.2E-10</v>
       </c>
-      <c r="H25" s="19">
-        <f>Foglio1!N24</f>
+      <c r="H25" s="20">
+        <f>Foglio1!O24</f>
         <v>245.98203840425455</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="K25" s="19">
+      <c r="I25" s="22"/>
+      <c r="K25" s="20">
         <f>Foglio1!E24</f>
         <v>30.362168034527372</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="20">
         <f>Foglio1!H24</f>
         <v>78.879927791585075</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="20">
+        <f>Foglio1!L24</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="20"/>
+      <c r="AD25" s="20">
         <f>Foglio1!K24</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="19"/>
-      <c r="AD25" s="19">
-        <f>Foglio1!J24</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="21"/>
+      <c r="AE25" s="22"/>
       <c r="AH25" s="15"/>
-      <c r="AI25" s="19"/>
-      <c r="AN25" s="19">
-        <f>Foglio1!L24</f>
+      <c r="AI25" s="20"/>
+      <c r="AN25" s="20">
+        <f>Foglio1!M24</f>
         <v>34.211339954901447</v>
       </c>
-      <c r="AR25" s="19">
-        <f>Foglio1!M24</f>
+      <c r="AR25" s="20">
+        <f>Foglio1!N24</f>
         <v>4.790638676709249</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+    </row>
+    <row r="26" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f>Foglio1!A25</f>
         <v>44606.944312766209</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <f>Foglio1!D25</f>
         <v>170.90857103954352</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="H26" s="19">
-        <f>Foglio1!N25</f>
+      <c r="F26" s="22"/>
+      <c r="H26" s="20">
+        <f>Foglio1!O25</f>
         <v>246.13130355758489</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="K26" s="19">
+      <c r="I26" s="22"/>
+      <c r="K26" s="20">
         <f>Foglio1!E25</f>
         <v>28.547048468327226</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="20">
         <f>Foglio1!H25</f>
         <v>76.157832548957899</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="20">
+        <f>Foglio1!L25</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="20"/>
+      <c r="AD26" s="20">
         <f>Foglio1!K25</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="19"/>
-      <c r="AD26" s="19">
-        <f>Foglio1!J25</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="21"/>
+      <c r="AE26" s="22"/>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="19"/>
-      <c r="AN26" s="19">
-        <f>Foglio1!L25</f>
+      <c r="AI26" s="20"/>
+      <c r="AN26" s="20">
+        <f>Foglio1!M25</f>
         <v>33.434909901221211</v>
       </c>
-      <c r="AR26" s="19">
-        <f>Foglio1!M25</f>
+      <c r="AR26" s="20">
+        <f>Foglio1!N25</f>
         <v>4.5639494192609558</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+    </row>
+    <row r="27" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f>Foglio1!A26</f>
         <v>44608.385673032404</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <f>Foglio1!D26</f>
         <v>170.50942548039941</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="H27" s="19">
-        <f>Foglio1!N26</f>
+      <c r="F27" s="22"/>
+      <c r="H27" s="20">
+        <f>Foglio1!O26</f>
         <v>247.37795710800407</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="K27" s="19">
+      <c r="I27" s="22"/>
+      <c r="K27" s="20">
         <f>Foglio1!E26</f>
         <v>31.046426320317838</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="20">
         <f>Foglio1!H26</f>
         <v>85.069547936129993</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="20">
+        <f>Foglio1!L26</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="20"/>
+      <c r="AD27" s="20">
         <f>Foglio1!K26</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="19"/>
-      <c r="AD27" s="19">
-        <f>Foglio1!J26</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="21"/>
+      <c r="AE27" s="22"/>
       <c r="AH27" s="15"/>
-      <c r="AI27" s="19"/>
-      <c r="AN27" s="19">
-        <f>Foglio1!L26</f>
+      <c r="AI27" s="20"/>
+      <c r="AN27" s="20">
+        <f>Foglio1!M26</f>
         <v>39.755225026359554</v>
       </c>
-      <c r="AR27" s="19">
-        <f>Foglio1!M26</f>
+      <c r="AR27" s="20">
+        <f>Foglio1!N26</f>
         <v>5.3731650266587616</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+    </row>
+    <row r="28" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <f>Foglio1!A27</f>
         <v>44608.662379513888</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="D28" s="19">
+      <c r="B28" s="32"/>
+      <c r="D28" s="20">
         <f>Foglio1!D27</f>
         <v>170.50942548039941</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="H28" s="19">
-        <f>Foglio1!N27</f>
+      <c r="F28" s="22"/>
+      <c r="H28" s="20">
+        <f>Foglio1!O27</f>
         <v>247.37795710800407</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="K28" s="19">
+      <c r="I28" s="22"/>
+      <c r="K28" s="20">
         <f>Foglio1!E27</f>
         <v>31.046426320317838</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="20">
         <f>Foglio1!H27</f>
         <v>85.069547936129993</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="20">
+        <f>Foglio1!L27</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="20"/>
+      <c r="AD28" s="20">
         <f>Foglio1!K27</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="19"/>
-      <c r="AD28" s="19">
-        <f>Foglio1!J27</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="21"/>
+      <c r="AE28" s="22"/>
       <c r="AH28" s="15"/>
-      <c r="AI28" s="19"/>
-      <c r="AN28" s="19">
-        <f>Foglio1!L27</f>
+      <c r="AI28" s="20"/>
+      <c r="AN28" s="20">
+        <f>Foglio1!M27</f>
         <v>39.755225026359554</v>
       </c>
-      <c r="AR28" s="19">
-        <f>Foglio1!M27</f>
+      <c r="AR28" s="20">
+        <f>Foglio1!N27</f>
         <v>5.3731650266587616</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+    </row>
+    <row r="29" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f>Foglio1!A28</f>
         <v>44627.870744143518</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="20">
         <f>Foglio1!D28</f>
         <v>0</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="H29" s="19">
-        <f>Foglio1!N28</f>
+      <c r="F29" s="22"/>
+      <c r="H29" s="20">
+        <f>Foglio1!O28</f>
         <v>0</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="K29" s="19">
+      <c r="I29" s="22"/>
+      <c r="K29" s="20">
         <f>Foglio1!E28</f>
         <v>24.106896033595248</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="20">
         <f>Foglio1!H28</f>
         <v>53.104118372627397</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="20">
+        <f>Foglio1!L28</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="20"/>
+      <c r="AD29" s="20">
         <f>Foglio1!K28</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="19"/>
-      <c r="AD29" s="19">
-        <f>Foglio1!J28</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="21"/>
+      <c r="AE29" s="22"/>
       <c r="AH29" s="15"/>
-      <c r="AI29" s="19"/>
-      <c r="AN29" s="19">
-        <f>Foglio1!L28</f>
+      <c r="AI29" s="20"/>
+      <c r="AN29" s="20">
+        <f>Foglio1!M28</f>
         <v>20.432078843767346</v>
       </c>
-      <c r="AR29" s="19">
-        <f>Foglio1!M28</f>
+      <c r="AR29" s="20">
+        <f>Foglio1!N28</f>
         <v>1.4633222177202497E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="D30" s="19">
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+    </row>
+    <row r="30" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <f>Foglio1!A29</f>
+        <v>44672.399457141204</v>
+      </c>
+      <c r="D30" s="20">
         <f>Foglio1!D29</f>
         <v>0</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="H30" s="19">
+      <c r="F30" s="22"/>
+      <c r="H30" s="20">
+        <f>Foglio1!O29</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="K30" s="20">
+        <f>Foglio1!E29</f>
+        <v>22.226107732093109</v>
+      </c>
+      <c r="P30" s="20">
+        <f>Foglio1!H29</f>
+        <v>52.358762343941791</v>
+      </c>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="22"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="20"/>
+      <c r="AN30" s="20">
+        <f>Foglio1!M29</f>
+        <v>15.743779274557623</v>
+      </c>
+      <c r="AR30" s="20">
         <f>Foglio1!N29</f>
+        <v>6.5857325504214487E-5</v>
+      </c>
+      <c r="AS30" s="20">
+        <f>Foglio1!F29</f>
         <v>0</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="K30" s="19">
-        <f>Foglio1!E29</f>
+      <c r="AT30" s="20">
+        <f>Foglio1!I29</f>
         <v>0</v>
       </c>
-      <c r="P30" s="19">
-        <f>Foglio1!H29</f>
+    </row>
+    <row r="31" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f>Foglio1!A30</f>
+        <v>44672.416274814816</v>
+      </c>
+      <c r="P31" s="20">
+        <f>Foglio1!H30</f>
+        <v>52.487977126472856</v>
+      </c>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="22"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="20"/>
+      <c r="AN31" s="20">
+        <f>Foglio1!M30</f>
+        <v>15.86638784163793</v>
+      </c>
+      <c r="AR31" s="20">
+        <f>Foglio1!N30</f>
+        <v>6.6396932319253503E-5</v>
+      </c>
+      <c r="AS31" s="20">
+        <f>Foglio1!F30</f>
+        <v>9.0613324967702482</v>
+      </c>
+      <c r="AT31" s="20">
+        <f>Foglio1!I30</f>
+        <v>63.03318534570414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f>Foglio1!A31</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="21"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="19"/>
-      <c r="AN30" s="19">
-        <f>Foglio1!L29</f>
+    </row>
+    <row r="33" spans="1:1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <f>Foglio1!A32</f>
         <v>0</v>
       </c>
-      <c r="AR30" s="19">
-        <f>Foglio1!M29</f>
+    </row>
+    <row r="34" spans="1:1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f>Foglio1!A33</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4 K4 P4 V4 AD4 AN4 AR4">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="D4 K4 V4 AD4 AR4:AT4 AN4 P4">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 K4 P4 V4 AD4 AN4 AR4">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D4 K4 V4 AD4 AR4:AT4 AN4 P4">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>